--- a/experiment/nonconvex/MitsosBarton2006Ex312/compare/Alpha-Zero/MitsosBarton2006Ex312_Alpha-Zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex312/compare/Alpha-Zero/MitsosBarton2006Ex312_Alpha-Zero.xlsx
@@ -473,13 +473,13 @@
         <v>0.9149999880386518</v>
       </c>
       <c r="E2">
-        <v>0.0122225</v>
+        <v>0.0203369</v>
       </c>
       <c r="F2">
-        <v>0.0237533</v>
+        <v>0.1113807</v>
       </c>
       <c r="G2">
-        <v>0.014465462790697676</v>
+        <v>0.03566443956834532</v>
       </c>
       <c r="H2">
         <v>4108</v>
